--- a/biology/Botanique/Olea_moluccensis/Olea_moluccensis.xlsx
+++ b/biology/Botanique/Olea_moluccensis/Olea_moluccensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Olea moluccensis est une espèce végétale appartenant au genre Olea. C'est un arbuste dont on ne sait s'il atteint la taille d'un arbre. Il a été reconnu et classé dans le sous-genre Tetrapilus par P.S. Green lors de sa révision du genre Olea (2002) avec ses synonymes et sa description botanique.
 </t>
@@ -511,7 +523,9 @@
           <t>Synonymes botaniques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il n'y a pas de synonymes connus à ce jour.
 </t>
@@ -544,12 +558,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Appareil végétatif
-C'est un arbuste dont un ne connait pas la forme arborée. Les jeunes branches sont glabres.  Les feuilles sont coriaces, avec des pétioles qui ont entre (0,8-)1 à 1,5 mm de longueur. Le limbe est elliptique à légèrement oblancéolé, de 18 à 25 cm de long et large de 6 à 9 cm de large, la base est largement aigüe, atténuée sur le pétiole, l'apex est brièvement acuminé. Les bords sont entiers. Il y a 10 à 14 nervures primaires de part et d'autre de la nervure centrale, habituellement avec une nervure secondaire entre chaque paire, n'atteignant pas le bord.
-Appareil reproducteur
-Les inflorescences sont axillaires en panicules denses, de 1 à 2 cm de long, à fleurs abondantes sub-ombellées, glabres ou finement pubérulentes, avec des pédicelles de 1,5 à 5 mm de long. Les pédicelles ont 0,5 à 1 mm de long. Les fleurs mâles viennent des bourgeons un peu globuleux mesurant 1 mm de diamètre. Le calice mesure 1 mm de long, largement quadrilobè, glabre avec les bords ciliés. La corolle mesure 1 à 1,5 mm de long, divisée légèrement moins qu'à la moitiè avec des lobes oblongs, arrondis et cucullés. Les étamines sont au nombre, subsessiles avec des anthères mesurent 0,5 mm de long. Le fruit n'a pas été observé. Il serait « globuleux » et mesurerait 16 × 15 mm selon Kiew.
-Répartition géographique
-Le matériel examiné provient des Îles Moluques : Ile Taliabu, Ile Buru (1859-1861).
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un arbuste dont un ne connait pas la forme arborée. Les jeunes branches sont glabres.  Les feuilles sont coriaces, avec des pétioles qui ont entre (0,8-)1 à 1,5 mm de longueur. Le limbe est elliptique à légèrement oblancéolé, de 18 à 25 cm de long et large de 6 à 9 cm de large, la base est largement aigüe, atténuée sur le pétiole, l'apex est brièvement acuminé. Les bords sont entiers. Il y a 10 à 14 nervures primaires de part et d'autre de la nervure centrale, habituellement avec une nervure secondaire entre chaque paire, n'atteignant pas le bord.
 </t>
         </is>
       </c>
@@ -575,10 +590,86 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Description botanique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les inflorescences sont axillaires en panicules denses, de 1 à 2 cm de long, à fleurs abondantes sub-ombellées, glabres ou finement pubérulentes, avec des pédicelles de 1,5 à 5 mm de long. Les pédicelles ont 0,5 à 1 mm de long. Les fleurs mâles viennent des bourgeons un peu globuleux mesurant 1 mm de diamètre. Le calice mesure 1 mm de long, largement quadrilobè, glabre avec les bords ciliés. La corolle mesure 1 à 1,5 mm de long, divisée légèrement moins qu'à la moitiè avec des lobes oblongs, arrondis et cucullés. Les étamines sont au nombre, subsessiles avec des anthères mesurent 0,5 mm de long. Le fruit n'a pas été observé. Il serait « globuleux » et mesurerait 16 × 15 mm selon Kiew.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Olea_moluccensis</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Olea_moluccensis</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description botanique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Répartition géographique</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le matériel examiné provient des Îles Moluques : Ile Taliabu, Ile Buru (1859-1861).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Olea_moluccensis</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Olea_moluccensis</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est recherchée pour la confection de bonsaïs ou comme arbre d'ornement de parcs et jardins.
 </t>
